--- a/backup/TableExport/Employee.xlsx
+++ b/backup/TableExport/Employee.xlsx
@@ -1,7 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shaiju\wayooz\backup\TableExport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="9030"/>
+  </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="StatusList" sheetId="2" r:id="rId2"/>
@@ -9,15 +18,270 @@
     <sheet name="FlowList" sheetId="4" r:id="rId4"/>
     <sheet name="Employee Approvals" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>UserAccess</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>TableId</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>AttachmentConfig</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Create Edit Delete</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>tableData</t>
+  </si>
+  <si>
+    <t>Employee Approvals</t>
+  </si>
+  <si>
+    <t>FlowName</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>InitStatus</t>
+  </si>
+  <si>
+    <t>FromStatus</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ToStatus</t>
+  </si>
+  <si>
+    <t>WhenXml</t>
+  </si>
+  <si>
+    <t>ActionXml</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>New,Draft,</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>&lt;Access&gt;_x000D_
+  &lt;Desc&gt;Role : BackOfficeMaker&lt;/Desc&gt;_x000D_
+  &lt;When&gt;_x000D_
+    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000D_
+  &lt;/When&gt;_x000D_
+&lt;/Access&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ActionList&gt;_x000D_
+  &lt;Desc&gt;Save as Draft&lt;/Desc&gt;_x000D_
+  &lt;AppData_x000D_
+    InPutParm="Parm1"&gt;_x000D_
+    &lt;col_x000D_
+      req="true"&gt;Name&lt;/col&gt;_x000D_
+  &lt;/AppData&gt;_x000D_
+&lt;/ActionList&gt;</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Get All Employees</t>
+  </si>
+  <si>
+    <t>&lt;Access&gt;_x000D_
+  &lt;Desc&gt;Role : OMSUser&lt;/Desc&gt;_x000D_
+  &lt;When&gt;_x000D_
+    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000D_
+  &lt;/When&gt;_x000D_
+&lt;/Access&gt;</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>&lt;ActionList&gt;_x000D_
+  &lt;Desc&gt;1. AddHistory 2. Mail To:BackOfficeChecker CC: BackOfficeMaker &lt;/Desc&gt;_x000D_
+  &lt;AppData_x000D_
+    InPutParm="Parm1"&gt;_x000D_
+    &lt;col&gt;InitAttachment&lt;/col&gt;_x000D_
+    &lt;col_x000D_
+      req="true"&gt;CustomerName&lt;/col&gt;_x000D_
+    &lt;col_x000D_
+      req="true"&gt;CIF&lt;/col&gt;_x000D_
+  &lt;/AppData&gt;_x000D_
+  &lt;AddHistory_x000D_
+    Action="New Request"_x000D_
+    ToStage="Submitted"_x000D_
+    CommentParm="Parm2" /&gt;_x000D_
+  &lt;SendEmail_x000D_
+    EmailTemplate="CustomerEmail"_x000D_
+    InPutParm="CustomerData"&gt;_x000D_
+    &lt;When&gt;&lt;/When&gt;_x000D_
+    &lt;EmailTo&gt;_x000D_
+      &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000D_
+    &lt;/EmailTo&gt;_x000D_
+    &lt;EmailCC&gt;_x000D_
+      &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000D_
+    &lt;/EmailCC&gt;_x000D_
+    &lt;EmailBCC&gt;_x000D_
+      &lt;email&gt;bob@test.com&lt;/email&gt;_x000D_
+    &lt;/EmailBCC&gt;_x000D_
+    &lt;Subject&gt;New Customer submitted for approval - ##CustomerName##&lt;/Subject&gt;_x000D_
+    &lt;Body&gt;New Customer submitted for approval ###Temaple##&lt;/Body&gt;_x000D_
+  &lt;/SendEmail&gt;_x000D_
+&lt;/ActionList&gt;</t>
+  </si>
+  <si>
+    <t>Employee by ID</t>
+  </si>
+  <si>
+    <t>&lt;ActionList&gt;_x000D_
+  &lt;Desc&gt;Id: Parm1&lt;/Desc&gt;_x000D_
+  &lt;Select_x000D_
+    history="true"_x000D_
+    attachment="true"&gt;*&lt;/Select&gt;_x000D_
+  &lt;Where&gt;_x000D_
+    &lt;DataComarison_x000D_
+      Field="Id"_x000D_
+      Operation="Eq"_x000D_
+      ValueParm="Parm1" /&gt;_x000D_
+  &lt;/Where&gt;_x000D_
+&lt;/ActionList&gt;</t>
+  </si>
+  <si>
+    <t>FileDownload</t>
+  </si>
+  <si>
+    <t>FileDoenload</t>
+  </si>
+  <si>
+    <t>&lt;Access&gt;_x000D_
+  &lt;Desc&gt;Role : Admin&lt;/Desc&gt;_x000D_
+  &lt;When&gt;_x000D_
+    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000D_
+  &lt;/When&gt;_x000D_
+&lt;/Access&gt;</t>
+  </si>
+  <si>
+    <t>TemplatePath</t>
+  </si>
+  <si>
+    <t>C:\Shaiju\wayooz\CodeTemplate</t>
+  </si>
+  <si>
+    <t>AppPath</t>
+  </si>
+  <si>
+    <t>C:\Shaiju\wayooz\client-app\</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,14 +310,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,80 +653,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>UserAccess</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
-      <c r="B2" t="str">
-        <v>Employee</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TableId</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" t="str">
-        <v>New</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -460,12 +765,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" t="str">
-        <v>Draft</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -474,12 +779,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" t="str">
-        <v>Submitted</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -488,12 +793,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5" t="str">
-        <v>Approved</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -502,12 +807,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" t="str">
-        <v>Rejected</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -516,12 +821,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" t="str">
-        <v>Deleted</v>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -531,495 +836,427 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError sqref="A1:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Order</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Type</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Config</v>
-      </c>
-      <c r="E1" t="str">
-        <v>AttachmentConfig</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Text</v>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <v>DOB</v>
-      </c>
-      <c r="C3" t="str">
-        <v>DateTime</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
-        <v>IsActive</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Bool</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
-        <v>Passport</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Attachment</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>Create Edit Delete</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="str">
-        <v>Country</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Config</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Countries</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" t="str">
-        <v>Salary</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Float</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" t="str">
-        <v>Manager</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Users</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9" t="str">
-        <v>Roles</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Roles</v>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v/>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError sqref="A1:E9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>tableData</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="str">
-        <v>Employee Approvals</v>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="9" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Order</v>
-      </c>
-      <c r="B1" t="str">
-        <v>FlowName</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ActionType</v>
-      </c>
-      <c r="D1" t="str">
-        <v>InitStatus</v>
-      </c>
-      <c r="E1" t="str">
-        <v>FromStatus</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Action</v>
-      </c>
-      <c r="G1" t="str">
-        <v>ToStatus</v>
-      </c>
-      <c r="H1" t="str">
-        <v>WhenXml</v>
-      </c>
-      <c r="I1" t="str">
-        <v>ActionXml</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Employee Approvals</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Action</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E2" t="str">
-        <v>New,Draft,</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Save</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Draft</v>
-      </c>
-      <c r="H2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;Access&gt;_x000d_
-  &lt;Desc&gt;Role : BackOfficeMaker&lt;/Desc&gt;_x000d_
-  &lt;When&gt;_x000d_
-    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-  &lt;/When&gt;_x000d_
-&lt;/Access&gt;</v>
-      </c>
-      <c r="I2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;ActionList&gt;_x000d_
-  &lt;Desc&gt;Save as Draft&lt;/Desc&gt;_x000d_
-  &lt;AppData_x000d_
-    InPutParm="Parm1"&gt;_x000d_
-    &lt;col_x000d_
-      req="true"&gt;Name&lt;/col&gt;_x000d_
-  &lt;/AppData&gt;_x000d_
-&lt;/ActionList&gt;</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Employee Approvals</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Query</v>
-      </c>
-      <c r="D3" t="str">
-        <v>No</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v>Get All Employees</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;Access&gt;_x000d_
-  &lt;Desc&gt;Role : OMSUser&lt;/Desc&gt;_x000d_
-  &lt;When&gt;_x000d_
-    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-  &lt;/When&gt;_x000d_
-&lt;/Access&gt;</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Employee Approvals</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Action</v>
-      </c>
-      <c r="D4" t="str">
-        <v>No</v>
-      </c>
-      <c r="E4" t="str">
-        <v>New,Draft,</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Submit</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Submitted</v>
-      </c>
-      <c r="H4" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;Access&gt;_x000d_
-  &lt;Desc&gt;Role : BackOfficeMaker&lt;/Desc&gt;_x000d_
-  &lt;When&gt;_x000d_
-    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-  &lt;/When&gt;_x000d_
-&lt;/Access&gt;</v>
-      </c>
-      <c r="I4" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;ActionList&gt;_x000d_
-  &lt;Desc&gt;1. AddHistory 2. Mail To:BackOfficeChecker CC: BackOfficeMaker &lt;/Desc&gt;_x000d_
-  &lt;AppData_x000d_
-    InPutParm="Parm1"&gt;_x000d_
-    &lt;col&gt;InitAttachment&lt;/col&gt;_x000d_
-    &lt;col_x000d_
-      req="true"&gt;CustomerName&lt;/col&gt;_x000d_
-    &lt;col_x000d_
-      req="true"&gt;CIF&lt;/col&gt;_x000d_
-  &lt;/AppData&gt;_x000d_
-  &lt;AddHistory_x000d_
-    Action="New Request"_x000d_
-    ToStage="Submitted"_x000d_
-    CommentParm="Parm2" /&gt;_x000d_
-  &lt;SendEmail_x000d_
-    EmailTemplate="CustomerEmail"_x000d_
-    InPutParm="CustomerData"&gt;_x000d_
-    &lt;When&gt;&lt;/When&gt;_x000d_
-    &lt;EmailTo&gt;_x000d_
-      &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-    &lt;/EmailTo&gt;_x000d_
-    &lt;EmailCC&gt;_x000d_
-      &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-    &lt;/EmailCC&gt;_x000d_
-    &lt;EmailBCC&gt;_x000d_
-      &lt;email&gt;bob@test.com&lt;/email&gt;_x000d_
-    &lt;/EmailBCC&gt;_x000d_
-    &lt;Subject&gt;New Customer submitted for approval - ##CustomerName##&lt;/Subject&gt;_x000d_
-    &lt;Body&gt;New Customer submitted for approval ###Temaple##&lt;/Body&gt;_x000d_
-  &lt;/SendEmail&gt;_x000d_
-&lt;/ActionList&gt;</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="189" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
-        <v>Employee Approvals</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Query</v>
-      </c>
-      <c r="D5" t="str">
-        <v>No</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v>Employee by ID</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;Access&gt;_x000d_
-  &lt;Desc&gt;Role : OMSUser&lt;/Desc&gt;_x000d_
-  &lt;When&gt;_x000d_
-    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-  &lt;/When&gt;_x000d_
-&lt;/Access&gt;</v>
-      </c>
-      <c r="I5" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;ActionList&gt;_x000d_
-  &lt;Desc&gt;Id: Parm1&lt;/Desc&gt;_x000d_
-  &lt;Select_x000d_
-    history="true"_x000d_
-    attachment="true"&gt;*&lt;/Select&gt;_x000d_
-  &lt;Where&gt;_x000d_
-    &lt;DataComarison_x000d_
-      Field="Id"_x000d_
-      Operation="Eq"_x000d_
-      ValueParm="Parm1" /&gt;_x000d_
-  &lt;/Where&gt;_x000d_
-&lt;/ActionList&gt;</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="str">
-        <v>Employee Approvals</v>
-      </c>
-      <c r="C6" t="str">
-        <v>FileDownload</v>
-      </c>
-      <c r="D6" t="str">
-        <v>No</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v>FileDoenload</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;Access&gt;_x000d_
-  &lt;Desc&gt;Role : Admin&lt;/Desc&gt;_x000d_
-  &lt;When&gt;_x000d_
-    &lt;UserRoles&gt;Admin&lt;/UserRoles&gt;_x000d_
-  &lt;/When&gt;_x000d_
-&lt;/Access&gt;</v>
-      </c>
-      <c r="I6" t="str">
-        <v/>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError sqref="A1:I1 A6:G6 I6 A5:G5 A4:G4 A3:G3 I4 A2:G2 I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backup/TableExport/Employee.xlsx
+++ b/backup/TableExport/Employee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shaiju\wayooz\backup\TableExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaijukumarkappillilbalakrishnan/Git/AppWeb/backup/TableExport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3234F-6F8B-9947-B4AE-00C62F4BB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22060" windowHeight="9040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -653,22 +654,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -690,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -698,7 +699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -706,7 +707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -723,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -731,13 +732,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -765,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -779,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -793,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -807,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -821,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>22</v>
       </c>
@@ -844,24 +845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="8" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -878,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -895,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -912,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -929,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -946,7 +947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -963,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -980,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -997,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1017,26 +1018,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E9" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E5 A7:E9 A6:C6 E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1064,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -1072,17 +1073,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="9" width="50.875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="9" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="189" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
